--- a/Task 3/Task3-1.xlsx
+++ b/Task 3/Task3-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Марина\Студенты\Информатика\Task 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C79AF51-45A2-4D3C-A2B1-3D8AEB810752}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F79013D-7C91-4BD3-B5B7-C31C4ACC528A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{E6E3DCC4-9D59-4685-AA43-5CB6A21DC1A1}"/>
   </bookViews>
@@ -437,7 +437,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="F2" sqref="F2:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -480,8 +480,8 @@
         <v>-2</v>
       </c>
       <c r="F2" s="1">
-        <f>1/($A$2+2*E2+E2^2)</f>
-        <v>9.9999999999999911</v>
+        <f>LOG(1/($A$2+2*E2+E2*E2),EXP(1))</f>
+        <v>2.302585092994045</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -489,9 +489,9 @@
         <f>E2+$D$2</f>
         <v>-1.8</v>
       </c>
-      <c r="F3" s="1">
-        <f t="shared" ref="F3:F12" si="0">1/($A$2+2*E3+E3^2)</f>
-        <v>-3.8461538461538494</v>
+      <c r="F3" s="1" t="e">
+        <f t="shared" ref="F3:F12" si="0">LOG(1/($A$2+2*E3+E3*E3),EXP(1))</f>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -499,9 +499,9 @@
         <f t="shared" ref="E4:E16" si="1">E3+$D$2</f>
         <v>-1.6</v>
       </c>
-      <c r="F4" s="1">
-        <f t="shared" si="0"/>
-        <v>-1.8518518518518532</v>
+      <c r="F4" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -509,9 +509,9 @@
         <f t="shared" si="1"/>
         <v>-1.4000000000000001</v>
       </c>
-      <c r="F5" s="1">
-        <f t="shared" si="0"/>
-        <v>-1.3513513513513518</v>
+      <c r="F5" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -519,9 +519,9 @@
         <f t="shared" si="1"/>
         <v>-1.2000000000000002</v>
       </c>
-      <c r="F6" s="1">
-        <f t="shared" si="0"/>
-        <v>-1.1627906976744187</v>
+      <c r="F6" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -529,9 +529,9 @@
         <f t="shared" si="1"/>
         <v>-1.0000000000000002</v>
       </c>
-      <c r="F7" s="1">
-        <f t="shared" si="0"/>
-        <v>-1.1111111111111112</v>
+      <c r="F7" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -539,9 +539,9 @@
         <f t="shared" si="1"/>
         <v>-0.80000000000000027</v>
       </c>
-      <c r="F8" s="1">
-        <f t="shared" si="0"/>
-        <v>-1.1627906976744187</v>
+      <c r="F8" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -549,9 +549,9 @@
         <f t="shared" si="1"/>
         <v>-0.60000000000000031</v>
       </c>
-      <c r="F9" s="1">
-        <f t="shared" si="0"/>
-        <v>-1.3513513513513509</v>
+      <c r="F9" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -559,9 +559,9 @@
         <f t="shared" si="1"/>
         <v>-0.4000000000000003</v>
       </c>
-      <c r="F10" s="1">
-        <f t="shared" si="0"/>
-        <v>-1.8518518518518505</v>
+      <c r="F10" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -569,9 +569,9 @@
         <f t="shared" si="1"/>
         <v>-0.20000000000000029</v>
       </c>
-      <c r="F11" s="1">
-        <f t="shared" si="0"/>
-        <v>-3.8461538461538396</v>
+      <c r="F11" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -581,7 +581,7 @@
       </c>
       <c r="F12" s="1">
         <f t="shared" si="0"/>
-        <v>10.000000000000055</v>
+        <v>2.3025850929940512</v>
       </c>
     </row>
   </sheetData>
